--- a/eval/data/heartAgent.xlsx
+++ b/eval/data/heartAgent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\chi2024\eval\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\chi2024\HeartAgent_Datavis\eval\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BD957-4840-4718-97A8-2A58B3989752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83414663-07DF-4129-ACA6-7C4891C82DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="0" windowWidth="15285" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heartagent" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1831,6 +1831,12 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1932,7 +1938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2008,6 +2014,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2041,8 +2050,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2361,8 +2373,8 @@
   <sheetPr codeName="heartagent"/>
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2385,7 +2397,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="25" t="s">
         <v>554</v>
       </c>
       <c r="F1" s="2"/>
@@ -2609,16 +2621,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="5">
@@ -2636,16 +2648,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="5">
@@ -2663,16 +2675,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5">
@@ -2690,16 +2702,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5">
@@ -2717,16 +2729,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5">
@@ -2744,16 +2756,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5">
@@ -2771,16 +2783,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5">
@@ -2798,16 +2810,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5">
@@ -2825,16 +2837,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5">
@@ -2852,16 +2864,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="5">
@@ -2879,16 +2891,16 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="5">
@@ -6212,25 +6224,25 @@
     <row r="1" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="34" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
@@ -6248,18 +6260,18 @@
       <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="M2" s="30"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
